--- a/POS.API/obj/Release/net7.0/PubTmp/Out/wwwroot/StockExcelUploadFilePath/GRNStockUpload.xlsx
+++ b/POS.API/obj/Release/net7.0/PubTmp/Out/wwwroot/StockExcelUploadFilePath/GRNStockUpload.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>UnitId</t>
   </si>
@@ -60,19 +60,22 @@
     <t>4F0A0258-0A2E-4155-8E6A-D753DB215FBD</t>
   </si>
   <si>
-    <t>PCS1</t>
-  </si>
-  <si>
-    <t>12120555</t>
-  </si>
-  <si>
     <t>ProductName</t>
   </si>
   <si>
-    <t>Pastry</t>
-  </si>
-  <si>
-    <t>ITC Veg Crispy French Fries 420gm</t>
+    <t>PurchasePrice</t>
+  </si>
+  <si>
+    <t>AGNESI CHIFFERI PASTA 500 GM</t>
+  </si>
+  <si>
+    <t>8001200139509</t>
+  </si>
+  <si>
+    <t>AGNESI LE LASAGNE 500 GM</t>
+  </si>
+  <si>
+    <t>8001200107621</t>
   </si>
 </sst>
 </file>
@@ -442,18 +445,20 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
+    <col min="1" max="1" width="29.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -462,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -479,28 +484,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>80</v>
+        <v>224.3</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>299</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>84.8</v>
+        <v>240</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -508,25 +513,25 @@
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3">
-        <v>90</v>
+        <v>243.73</v>
       </c>
       <c r="E3">
-        <v>120</v>
+        <v>325</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>7.09</v>
       </c>
       <c r="G3">
-        <v>96.3</v>
+        <v>261</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
